--- a/Beton/src/main/resources/dataSheets/testResults_1.xlsx
+++ b/Beton/src/main/resources/dataSheets/testResults_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="312">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -855,6 +855,99 @@
   </si>
   <si>
     <t>2015-12-09 23:32:25</t>
+  </si>
+  <si>
+    <t>nativeImei</t>
+  </si>
+  <si>
+    <t>SA-Avner], powerControl, reboot, powerSupply, [source, SERVER, offlineCharging, DEFAULT</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2016-01-27-17-44-54-203-IST.png</t>
+  </si>
+  <si>
+    <t>WF-CG29-64/005304/01</t>
+  </si>
+  <si>
+    <t>2016-01-27:15-44-08</t>
+  </si>
+  <si>
+    <t>1453909448763</t>
+  </si>
+  <si>
+    <t>2016-01-27 17:44:54</t>
+  </si>
+  <si>
+    <t>354449061777034</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2016-01-27-17-45-55-280-IST.png</t>
+  </si>
+  <si>
+    <t>2016-01-27 17:45:55</t>
+  </si>
+  <si>
+    <t>Samsung-Galaxy S6-Generic</t>
+  </si>
+  <si>
+    <t>2560</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2016-01-27-17-46-25-806-IST.png</t>
+  </si>
+  <si>
+    <t>1440x2560</t>
+  </si>
+  <si>
+    <t>03157DF3800C0537</t>
+  </si>
+  <si>
+    <t>AT&amp;T-United States of America</t>
+  </si>
+  <si>
+    <t>e8:50:8b:07:16:9d</t>
+  </si>
+  <si>
+    <t>Samsung-Galaxy S6</t>
+  </si>
+  <si>
+    <t>WF-CG29-48/VIRTUAL/01</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Galaxy S6</t>
+  </si>
+  <si>
+    <t>zeroflteuc-user 5.1.1 LMY47X G920AUCU3BOJ7 release-keys</t>
+  </si>
+  <si>
+    <t>17.02.2015</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>+1 (781) 491-4940</t>
+  </si>
+  <si>
+    <t>1453909448716</t>
+  </si>
+  <si>
+    <t>2016-01-27 17:46:25</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>NOT-AVAILABLE</t>
+  </si>
+  <si>
+    <t>/Users/avner/git/Beton/Beton/test-output/screenshots2016-01-27-17-47-27-583-IST.png</t>
+  </si>
+  <si>
+    <t>2016-01-27 17:47:27</t>
   </si>
 </sst>
 </file>
@@ -1104,6 +1197,9 @@
       <c r="BN1" t="s">
         <v>130</v>
       </c>
+      <c r="BO1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -6932,6 +7028,578 @@
       </c>
       <c r="AT52" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" t="s">
+        <v>57</v>
+      </c>
+      <c r="M53" t="s">
+        <v>59</v>
+      </c>
+      <c r="N53" t="s">
+        <v>60</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>63</v>
+      </c>
+      <c r="R53" t="s">
+        <v>64</v>
+      </c>
+      <c r="S53" t="s">
+        <v>99</v>
+      </c>
+      <c r="T53" t="s">
+        <v>248</v>
+      </c>
+      <c r="U53" t="s">
+        <v>67</v>
+      </c>
+      <c r="V53" t="s">
+        <v>63</v>
+      </c>
+      <c r="W53" t="s">
+        <v>68</v>
+      </c>
+      <c r="X53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>283</v>
+      </c>
+      <c r="BO53" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" t="s">
+        <v>57</v>
+      </c>
+      <c r="M54" t="s">
+        <v>59</v>
+      </c>
+      <c r="N54" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" t="s">
+        <v>61</v>
+      </c>
+      <c r="P54" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>63</v>
+      </c>
+      <c r="R54" t="s">
+        <v>64</v>
+      </c>
+      <c r="S54" t="s">
+        <v>99</v>
+      </c>
+      <c r="T54" t="s">
+        <v>259</v>
+      </c>
+      <c r="U54" t="s">
+        <v>67</v>
+      </c>
+      <c r="V54" t="s">
+        <v>63</v>
+      </c>
+      <c r="W54" t="s">
+        <v>68</v>
+      </c>
+      <c r="X54" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>289</v>
+      </c>
+      <c r="BO54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" t="s">
+        <v>294</v>
+      </c>
+      <c r="I55" t="s">
+        <v>295</v>
+      </c>
+      <c r="J55" t="s">
+        <v>296</v>
+      </c>
+      <c r="K55" t="s">
+        <v>297</v>
+      </c>
+      <c r="L55" t="s">
+        <v>296</v>
+      </c>
+      <c r="M55" t="s">
+        <v>95</v>
+      </c>
+      <c r="N55" t="s">
+        <v>298</v>
+      </c>
+      <c r="O55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P55" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>63</v>
+      </c>
+      <c r="R55" t="s">
+        <v>300</v>
+      </c>
+      <c r="S55" t="s">
+        <v>99</v>
+      </c>
+      <c r="T55" t="s">
+        <v>248</v>
+      </c>
+      <c r="U55" t="s">
+        <v>67</v>
+      </c>
+      <c r="V55" t="s">
+        <v>63</v>
+      </c>
+      <c r="W55" t="s">
+        <v>301</v>
+      </c>
+      <c r="X55" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>293</v>
+      </c>
+      <c r="BO55" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" t="s">
+        <v>294</v>
+      </c>
+      <c r="I56" t="s">
+        <v>295</v>
+      </c>
+      <c r="J56" t="s">
+        <v>296</v>
+      </c>
+      <c r="K56" t="s">
+        <v>297</v>
+      </c>
+      <c r="L56" t="s">
+        <v>296</v>
+      </c>
+      <c r="M56" t="s">
+        <v>95</v>
+      </c>
+      <c r="N56" t="s">
+        <v>298</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>63</v>
+      </c>
+      <c r="R56" t="s">
+        <v>300</v>
+      </c>
+      <c r="S56" t="s">
+        <v>99</v>
+      </c>
+      <c r="T56" t="s">
+        <v>259</v>
+      </c>
+      <c r="U56" t="s">
+        <v>67</v>
+      </c>
+      <c r="V56" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" t="s">
+        <v>301</v>
+      </c>
+      <c r="X56" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>310</v>
+      </c>
+      <c r="BO56" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -6967,6 +7635,10 @@
     <hyperlink ref="AT50" r:id="rId29"/>
     <hyperlink ref="AT51" r:id="rId30"/>
     <hyperlink ref="AT52" r:id="rId31"/>
+    <hyperlink ref="AT53" r:id="rId32"/>
+    <hyperlink ref="AT54" r:id="rId33"/>
+    <hyperlink ref="AT55" r:id="rId34"/>
+    <hyperlink ref="AT56" r:id="rId35"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
